--- a/Акции.xlsx
+++ b/Акции.xlsx
@@ -1,49 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="4">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,42 +42,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -455,159 +410,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col width="9.91" customWidth="1" style="3" min="1" max="1"/>
-    <col width="14.09" customWidth="1" style="3" min="2" max="3"/>
-    <col width="10.46" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.16" customWidth="1" style="3" min="6" max="6"/>
-    <col width="10.46" customWidth="1" style="3" min="7" max="7"/>
+    <col width="9.90625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.08984375" customWidth="1" style="1" min="2" max="3"/>
+    <col width="10.453125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="14.1796875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10.453125" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" s="4">
-      <c r="B1" s="3" t="inlineStr">
+    <row r="1" ht="14.5" customHeight="1" s="1">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Цена закрытия</t>
         </is>
       </c>
-      <c r="E1" s="3" t="n"/>
-    </row>
-    <row r="2" ht="14.5" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>APPL</t>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" s="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>122.15</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    </row>
+    <row r="3" ht="14.5" customHeight="1" s="1">
+      <c r="A3" t="inlineStr">
         <is>
           <t>GOOGL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,062.52</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" s="4">
-      <c r="A4" s="3" t="inlineStr">
+    </row>
+    <row r="4" ht="14.5" customHeight="1" s="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>227.24</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" s="4">
-      <c r="A5" s="3" t="inlineStr">
+    </row>
+    <row r="5" ht="14.5" customHeight="1" s="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>572.60</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-    </row>
-    <row r="6" ht="14.5" customHeight="1" s="4">
-      <c r="A6" s="3" t="inlineStr">
+    </row>
+    <row r="6" ht="14.5" customHeight="1" s="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>BABA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>226.73</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n"/>
-    </row>
-    <row r="7" ht="13.75" customHeight="1" s="4">
-      <c r="A7" s="3" t="inlineStr">
+    </row>
+    <row r="7" ht="13.75" customHeight="1" s="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>78.50</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="13.75" customHeight="1" s="4">
-      <c r="A8" s="3" t="inlineStr">
+    </row>
+    <row r="8" ht="13.75" customHeight="1" s="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>INTC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>64.00</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="14.5" customHeight="1" s="4">
-      <c r="A9" s="3" t="inlineStr">
+    </row>
+    <row r="9" ht="14.5" customHeight="1" s="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>AMZN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>3,094.08</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n"/>
-    </row>
-    <row r="10" ht="13.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="inlineStr">
+    </row>
+    <row r="10" ht="13.75" customHeight="1" s="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>6,111.5</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n"/>
-    </row>
-    <row r="11" ht="13.75" customHeight="1" s="4">
-      <c r="A11" s="5" t="n">
+    </row>
+    <row r="11" ht="13.75" customHeight="1" s="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VTBR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.042715</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>44286</v>
       </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="4"/>
+    <row r="14" ht="13.75" customHeight="1" s="1"/>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Акции.xlsx
+++ b/Акции.xlsx
@@ -414,10 +414,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>122.15</t>
+          <t>0.33</t>
         </is>
       </c>
     </row>
@@ -466,65 +466,65 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2,062.52</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4" ht="14.5" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>russia</t>
+          <t>united states</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>227.24</t>
+          <t>12.80</t>
         </is>
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>russia</t>
+          <t>united states</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>572.60</t>
+          <t>28.38</t>
         </is>
       </c>
     </row>
     <row r="6" ht="14.5" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>united states</t>
+          <t>russia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>226.73</t>
+          <t>1.04</t>
         </is>
       </c>
     </row>
     <row r="7" ht="13.75" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -534,14 +534,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78.50</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8" ht="13.75" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>7.05</t>
         </is>
       </c>
     </row>
     <row r="9" ht="14.5" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -568,50 +568,219 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3,094.08</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10" ht="13.75" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GME</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>russia</t>
+          <t>united states</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,111.5</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="13.75" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>BMRN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BLUE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MRUS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="13.75" customHeight="1" s="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CARA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PRTK</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EXEL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>YNDX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>united states</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RASP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>russia</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.042715</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44286</v>
-      </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1" s="1"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RSTI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>russia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>37207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/Акции.xlsx
+++ b/Акции.xlsx
@@ -414,10 +414,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>79.81</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,484.69</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>51.71</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28.38</t>
+          <t>63.32</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>263.73</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>349.60</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>1,884.58</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>219.13</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>85.63</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>89.72</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>16.34</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13.91</t>
+          <t>19.57</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>44.90</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>106.92</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.577</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.6849</t>
         </is>
       </c>
     </row>
@@ -772,13 +772,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800.00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>37207</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>canada</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43853</v>
       </c>
     </row>
   </sheetData>

--- a/Акции.xlsx
+++ b/Акции.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -522,282 +522,27 @@
       </c>
     </row>
     <row r="7" ht="13.75" customHeight="1" s="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NFLX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>349.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="13.75" customHeight="1" s="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,884.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1" s="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BABA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>219.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="13.75" customHeight="1" s="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GME</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="13.75" customHeight="1" s="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BMRN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>85.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BLUE</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MRUS</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1" s="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CARA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16.34</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PRTK</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EXEL</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>19.57</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>YNDX</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>united states</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>44.90</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RASP</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>106.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>RSTI</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1.577</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HYDR</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.6849</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>russia</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>800.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>canada</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.1450</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A7" s="2" t="n">
         <v>43853</v>
       </c>
-    </row>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="13.75" customHeight="1" s="1"/>
+    <row r="9" ht="14.5" customHeight="1" s="1"/>
+    <row r="10" ht="13.75" customHeight="1" s="1"/>
+    <row r="11" ht="13.75" customHeight="1" s="1"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14" ht="13.75" customHeight="1" s="1"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
